--- a/templates/RulesAndRewards.xlsx
+++ b/templates/RulesAndRewards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b477b3909c98aee/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b477b3909c98aee/Documents/GitHub/Bigo--Live-Dashboard/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{B29BD1F9-B93C-4896-B600-D2FB55F09C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0286539A-9CE9-4366-9F32-075A8A770B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4410" yWindow="5535" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules and rewards" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
-  <si>
-    <t>Daily PK</t>
-  </si>
   <si>
     <t>PK points</t>
   </si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>Star Tasks PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Daily PK</t>
   </si>
 </sst>
 </file>
@@ -204,12 +204,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -272,10 +271,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -291,10 +287,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -502,7 +494,7 @@
   <dimension ref="A1:AD752"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -523,9 +515,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+      <c r="A1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -554,13 +548,19 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
     </row>
-    <row r="2" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="1"/>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -589,10 +589,20 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="1"/>
+      <c r="A3" s="10">
+        <v>7000</v>
+      </c>
+      <c r="B3" s="11">
+        <v>210</v>
+      </c>
+      <c r="C3" s="11">
+        <f t="shared" ref="C3:C9" si="0">B3/2</f>
+        <v>105</v>
+      </c>
+      <c r="D3" s="12">
+        <f>B3/A3/0.1</f>
+        <v>0.3</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -621,17 +631,19 @@
       <c r="AD3" s="1"/>
     </row>
     <row r="4" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>1</v>
+      <c r="A4" s="10">
+        <v>10000</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
+      <c r="B4" s="11">
+        <v>300</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>3</v>
+      <c r="C4" s="11">
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>4</v>
+      <c r="D4" s="12">
+        <f>B4/A4/0.1</f>
+        <v>0.3</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -661,24 +673,24 @@
       <c r="AD4" s="1"/>
     </row>
     <row r="5" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
-        <v>7000</v>
+      <c r="A5" s="10">
+        <v>20000</v>
       </c>
-      <c r="B5" s="12">
-        <v>210</v>
+      <c r="B5" s="11">
+        <v>600</v>
       </c>
-      <c r="C5" s="12">
-        <f t="shared" ref="C5:C11" si="0">B5/2</f>
-        <v>105</v>
+      <c r="C5" s="11">
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
-      <c r="D5" s="13">
-        <f t="shared" ref="D5:D11" si="1">B5/A5/0.1</f>
+      <c r="D5" s="12">
+        <f>B5/A5/0.1</f>
         <v>0.3</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -703,24 +715,24 @@
       <c r="AD5" s="1"/>
     </row>
     <row r="6" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
-        <v>10000</v>
+      <c r="A6" s="10">
+        <v>30000</v>
       </c>
-      <c r="B6" s="12">
-        <v>300</v>
+      <c r="B6" s="11">
+        <v>900</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>450</v>
       </c>
-      <c r="D6" s="13">
-        <f t="shared" si="1"/>
+      <c r="D6" s="12">
+        <f>B6/A6/0.1</f>
         <v>0.3</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -745,24 +757,24 @@
       <c r="AD6" s="1"/>
     </row>
     <row r="7" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
-        <v>20000</v>
+      <c r="A7" s="10">
+        <v>50000</v>
       </c>
-      <c r="B7" s="12">
-        <v>600</v>
+      <c r="B7" s="11">
+        <v>1000</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>500</v>
       </c>
-      <c r="D7" s="13">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
+      <c r="D7" s="12">
+        <f>B7/A7/0.1</f>
+        <v>0.19999999999999998</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -787,24 +799,24 @@
       <c r="AD7" s="1"/>
     </row>
     <row r="8" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
-        <v>30000</v>
+      <c r="A8" s="10">
+        <v>100000</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
+        <v>1800</v>
+      </c>
+      <c r="C8" s="11">
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="C8" s="12">
-        <f t="shared" si="0"/>
-        <v>450</v>
+      <c r="D8" s="12">
+        <f>B8/A8/0.1</f>
+        <v>0.17999999999999997</v>
       </c>
-      <c r="D8" s="13">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -829,24 +841,24 @@
       <c r="AD8" s="1"/>
     </row>
     <row r="9" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
-        <v>50000</v>
+      <c r="A9" s="10">
+        <v>150000</v>
       </c>
-      <c r="B9" s="12">
-        <v>1000</v>
+      <c r="B9" s="11">
+        <v>2700</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>1350</v>
       </c>
-      <c r="D9" s="13">
-        <f t="shared" si="1"/>
-        <v>0.19999999999999998</v>
+      <c r="D9" s="12">
+        <f>B9/A9/0.1</f>
+        <v>0.17999999999999997</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -871,24 +883,14 @@
       <c r="AD9" s="1"/>
     </row>
     <row r="10" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
-        <v>100000</v>
-      </c>
-      <c r="B10" s="12">
-        <v>1800</v>
-      </c>
-      <c r="C10" s="12">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-      <c r="D10" s="13">
-        <f t="shared" si="1"/>
-        <v>0.17999999999999997</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -912,25 +914,17 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
-        <v>150000</v>
+    <row r="11" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>4</v>
       </c>
-      <c r="B11" s="12">
-        <v>2700</v>
-      </c>
-      <c r="C11" s="12">
-        <f t="shared" si="0"/>
-        <v>1350</v>
-      </c>
-      <c r="D11" s="13">
-        <f t="shared" si="1"/>
-        <v>0.17999999999999997</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -955,10 +949,18 @@
       <c r="AD11" s="1"/>
     </row>
     <row r="12" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -986,13 +988,21 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>5</v>
+    <row r="13" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19">
+        <v>5000</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="B13" s="19">
+        <v>150</v>
+      </c>
+      <c r="C13" s="19">
+        <f t="shared" ref="C13:C17" si="1">B13/2</f>
+        <v>75</v>
+      </c>
+      <c r="D13" s="12">
+        <f>B13/A13/0.1</f>
+        <v>0.3</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1021,10 +1031,20 @@
       <c r="AD13" s="1"/>
     </row>
     <row r="14" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="19">
+        <v>10000</v>
+      </c>
+      <c r="B14" s="19">
+        <v>350</v>
+      </c>
+      <c r="C14" s="19">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="D14" s="12">
+        <f>B14/A14/0.1</f>
+        <v>0.35000000000000003</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1053,17 +1073,19 @@
       <c r="AD14" s="1"/>
     </row>
     <row r="15" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
-        <v>1</v>
+      <c r="A15" s="19">
+        <v>20000</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>2</v>
+      <c r="B15" s="19">
+        <v>700</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>3</v>
+      <c r="C15" s="19">
+        <f t="shared" si="1"/>
+        <v>350</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>4</v>
+      <c r="D15" s="12">
+        <f>B15/A15/0.1</f>
+        <v>0.35000000000000003</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1093,25 +1115,25 @@
       <c r="AD15" s="1"/>
     </row>
     <row r="16" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20">
-        <v>5000</v>
+      <c r="A16" s="19">
+        <v>30000</v>
       </c>
-      <c r="B16" s="20">
-        <v>150</v>
+      <c r="B16" s="19">
+        <v>1000</v>
       </c>
-      <c r="C16" s="20">
-        <f t="shared" ref="C16:C20" si="2">B16/2</f>
-        <v>75</v>
+      <c r="C16" s="19">
+        <f t="shared" si="1"/>
+        <v>500</v>
       </c>
-      <c r="D16" s="13">
-        <f t="shared" ref="D16:D20" si="3">B16/A16/0.1</f>
-        <v>0.3</v>
+      <c r="D16" s="12">
+        <f>B16/A16/0.1</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="15"/>
+      <c r="I16" s="14"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1135,25 +1157,25 @@
       <c r="AD16" s="1"/>
     </row>
     <row r="17" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="20">
-        <v>10000</v>
+      <c r="A17" s="19">
+        <v>50000</v>
       </c>
-      <c r="B17" s="20">
-        <v>350</v>
+      <c r="B17" s="19">
+        <v>1700</v>
       </c>
-      <c r="C17" s="20">
-        <f t="shared" si="2"/>
-        <v>175</v>
+      <c r="C17" s="19">
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
-      <c r="D17" s="13">
-        <f t="shared" si="3"/>
-        <v>0.35000000000000003</v>
+      <c r="D17" s="12">
+        <f>B17/A17/0.1</f>
+        <v>0.34</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="15"/>
+      <c r="I17" s="14"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1177,25 +1199,15 @@
       <c r="AD17" s="1"/>
     </row>
     <row r="18" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="20">
-        <v>20000</v>
-      </c>
-      <c r="B18" s="20">
-        <v>700</v>
-      </c>
-      <c r="C18" s="20">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="D18" s="13">
-        <f t="shared" si="3"/>
-        <v>0.35000000000000003</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="15"/>
+      <c r="I18" s="14"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1218,26 +1230,18 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="20">
-        <v>30000</v>
+    <row r="19" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>5</v>
       </c>
-      <c r="B19" s="20">
-        <v>1000</v>
-      </c>
-      <c r="C19" s="20">
-        <f t="shared" si="2"/>
-        <v>500</v>
-      </c>
-      <c r="D19" s="13">
-        <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="15"/>
+      <c r="I19" s="14"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1261,25 +1265,23 @@
       <c r="AD19" s="1"/>
     </row>
     <row r="20" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="20">
-        <v>50000</v>
+      <c r="A20" s="16" t="s">
+        <v>0</v>
       </c>
-      <c r="B20" s="20">
-        <v>1700</v>
+      <c r="B20" s="17" t="s">
+        <v>6</v>
       </c>
-      <c r="C20" s="20">
-        <f t="shared" si="2"/>
-        <v>850</v>
+      <c r="C20" s="18" t="s">
+        <v>7</v>
       </c>
-      <c r="D20" s="13">
-        <f t="shared" si="3"/>
-        <v>0.34</v>
+      <c r="D20" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="15"/>
+      <c r="I20" s="14"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1303,10 +1305,20 @@
       <c r="AD20" s="1"/>
     </row>
     <row r="21" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="15"/>
+      <c r="A21" s="19">
+        <v>5000</v>
+      </c>
+      <c r="B21" s="19">
+        <v>150</v>
+      </c>
+      <c r="C21" s="19">
+        <f t="shared" ref="C21:C26" si="2">B21/2</f>
+        <v>75</v>
+      </c>
+      <c r="D21" s="12">
+        <f>B21/A21/0.1</f>
+        <v>0.3</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1334,13 +1346,21 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>6</v>
+    <row r="22" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="19">
+        <v>10000</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="15"/>
+      <c r="B22" s="19">
+        <v>300</v>
+      </c>
+      <c r="C22" s="19">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="D22" s="12">
+        <f>B22/A22/0.1</f>
+        <v>0.3</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1369,10 +1389,20 @@
       <c r="AD22" s="1"/>
     </row>
     <row r="23" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="15"/>
+      <c r="A23" s="19">
+        <v>25000</v>
+      </c>
+      <c r="B23" s="19">
+        <v>800</v>
+      </c>
+      <c r="C23" s="19">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="D23" s="12">
+        <f>B23/A23/0.1</f>
+        <v>0.32</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1401,17 +1431,19 @@
       <c r="AD23" s="1"/>
     </row>
     <row r="24" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
-        <v>1</v>
+      <c r="A24" s="19">
+        <v>50000</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>7</v>
+      <c r="B24" s="19">
+        <v>1700</v>
       </c>
-      <c r="C24" s="19" t="s">
-        <v>8</v>
+      <c r="C24" s="19">
+        <f t="shared" si="2"/>
+        <v>850</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>4</v>
+      <c r="D24" s="12">
+        <f>B24/A24/0.1</f>
+        <v>0.34</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1441,25 +1473,25 @@
       <c r="AD24" s="1"/>
     </row>
     <row r="25" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="20">
-        <v>5000</v>
+      <c r="A25" s="19">
+        <v>70000</v>
       </c>
-      <c r="B25" s="20">
-        <v>150</v>
+      <c r="B25" s="19">
+        <v>2300</v>
       </c>
-      <c r="C25" s="20">
-        <f t="shared" ref="C25:C30" si="4">B25/2</f>
-        <v>75</v>
+      <c r="C25" s="19">
+        <f t="shared" si="2"/>
+        <v>1150</v>
       </c>
-      <c r="D25" s="13">
-        <f t="shared" ref="D25:D30" si="5">B25/A25/0.1</f>
-        <v>0.3</v>
+      <c r="D25" s="12">
+        <f>B25/A25/0.1</f>
+        <v>0.32857142857142851</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="15"/>
+      <c r="I25" s="14"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1483,25 +1515,25 @@
       <c r="AD25" s="1"/>
     </row>
     <row r="26" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="20">
-        <v>10000</v>
+      <c r="A26" s="19">
+        <v>100000</v>
       </c>
-      <c r="B26" s="20">
-        <v>300</v>
+      <c r="B26" s="19">
+        <v>3500</v>
       </c>
-      <c r="C26" s="20">
-        <f t="shared" si="4"/>
-        <v>150</v>
+      <c r="C26" s="19">
+        <f t="shared" si="2"/>
+        <v>1750</v>
       </c>
-      <c r="D26" s="13">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
+      <c r="D26" s="12">
+        <f>B26/A26/0.1</f>
+        <v>0.35000000000000003</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="15"/>
+      <c r="I26" s="14"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1525,25 +1557,15 @@
       <c r="AD26" s="1"/>
     </row>
     <row r="27" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="20">
-        <v>25000</v>
-      </c>
-      <c r="B27" s="20">
-        <v>800</v>
-      </c>
-      <c r="C27" s="20">
-        <f t="shared" si="4"/>
-        <v>400</v>
-      </c>
-      <c r="D27" s="13">
-        <f t="shared" si="5"/>
-        <v>0.32</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="15"/>
+      <c r="I27" s="14"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1566,26 +1588,18 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
     </row>
-    <row r="28" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="20">
-        <v>50000</v>
+    <row r="28" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>8</v>
       </c>
-      <c r="B28" s="20">
-        <v>1700</v>
-      </c>
-      <c r="C28" s="20">
-        <f t="shared" si="4"/>
-        <v>850</v>
-      </c>
-      <c r="D28" s="13">
-        <f t="shared" si="5"/>
-        <v>0.34</v>
-      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
       <c r="E28" s="1"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="15"/>
+      <c r="I28" s="14"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1609,25 +1623,23 @@
       <c r="AD28" s="1"/>
     </row>
     <row r="29" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="20">
-        <v>70000</v>
+      <c r="A29" s="22" t="s">
+        <v>0</v>
       </c>
-      <c r="B29" s="20">
-        <v>2300</v>
+      <c r="B29" s="23" t="s">
+        <v>1</v>
       </c>
-      <c r="C29" s="20">
-        <f t="shared" si="4"/>
-        <v>1150</v>
+      <c r="C29" s="24" t="s">
+        <v>2</v>
       </c>
-      <c r="D29" s="13">
-        <f t="shared" si="5"/>
-        <v>0.32857142857142851</v>
+      <c r="D29" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="15"/>
+      <c r="I29" s="14"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1651,25 +1663,25 @@
       <c r="AD29" s="1"/>
     </row>
     <row r="30" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="20">
-        <v>100000</v>
+      <c r="A30" s="19">
+        <v>2000</v>
       </c>
-      <c r="B30" s="20">
-        <v>3500</v>
+      <c r="B30" s="19">
+        <v>60</v>
       </c>
-      <c r="C30" s="20">
-        <f t="shared" si="4"/>
-        <v>1750</v>
+      <c r="C30" s="19">
+        <f t="shared" ref="C30:C35" si="3">B30/2</f>
+        <v>30</v>
       </c>
-      <c r="D30" s="13">
-        <f t="shared" si="5"/>
-        <v>0.35000000000000003</v>
+      <c r="D30" s="12">
+        <f>B30/A30/0.1</f>
+        <v>0.3</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="15"/>
+      <c r="I30" s="14"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1693,10 +1705,20 @@
       <c r="AD30" s="1"/>
     </row>
     <row r="31" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="A31" s="19">
+        <v>10000</v>
+      </c>
+      <c r="B31" s="19">
+        <v>320</v>
+      </c>
+      <c r="C31" s="19">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="D31" s="12">
+        <f>B31/A31/0.1</f>
+        <v>0.32</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1724,13 +1746,21 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
     </row>
-    <row r="32" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>9</v>
+    <row r="32" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="19">
+        <v>50000</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="B32" s="19">
+        <v>1700</v>
+      </c>
+      <c r="C32" s="19">
+        <f t="shared" si="3"/>
+        <v>850</v>
+      </c>
+      <c r="D32" s="12">
+        <f>B32/A32/0.1</f>
+        <v>0.34</v>
+      </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1759,10 +1789,20 @@
       <c r="AD32" s="1"/>
     </row>
     <row r="33" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="A33" s="19">
+        <v>80000</v>
+      </c>
+      <c r="B33" s="19">
+        <v>2800</v>
+      </c>
+      <c r="C33" s="19">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+      <c r="D33" s="12">
+        <f>B33/A33/0.1</f>
+        <v>0.35000000000000003</v>
+      </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1791,17 +1831,19 @@
       <c r="AD33" s="1"/>
     </row>
     <row r="34" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="s">
-        <v>1</v>
+      <c r="A34" s="19">
+        <v>100000</v>
       </c>
-      <c r="B34" s="24" t="s">
-        <v>2</v>
+      <c r="B34" s="19">
+        <v>3500</v>
       </c>
-      <c r="C34" s="25" t="s">
-        <v>3</v>
+      <c r="C34" s="19">
+        <f t="shared" si="3"/>
+        <v>1750</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>4</v>
+      <c r="D34" s="12">
+        <f>B34/A34/0.1</f>
+        <v>0.35000000000000003</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="2"/>
@@ -1830,25 +1872,25 @@
       <c r="AC34" s="1"/>
     </row>
     <row r="35" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="20">
+      <c r="A35" s="19">
+        <v>120000</v>
+      </c>
+      <c r="B35" s="19">
+        <v>4000</v>
+      </c>
+      <c r="C35" s="19">
+        <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="B35" s="20">
-        <v>60</v>
-      </c>
-      <c r="C35" s="20">
-        <f t="shared" ref="C35:C40" si="6">B35/2</f>
-        <v>30</v>
-      </c>
-      <c r="D35" s="13">
-        <f t="shared" ref="D35:D40" si="7">B35/A35/0.1</f>
-        <v>0.3</v>
+      <c r="D35" s="12">
+        <f>B35/A35/0.1</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="15"/>
+      <c r="I35" s="14"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -1871,25 +1913,15 @@
       <c r="AC35" s="1"/>
     </row>
     <row r="36" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="20">
-        <v>10000</v>
-      </c>
-      <c r="B36" s="20">
-        <v>320</v>
-      </c>
-      <c r="C36" s="20">
-        <f t="shared" si="6"/>
-        <v>160</v>
-      </c>
-      <c r="D36" s="13">
-        <f t="shared" si="7"/>
-        <v>0.32</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="15"/>
+      <c r="I36" s="14"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -1912,25 +1944,15 @@
       <c r="AC36" s="1"/>
     </row>
     <row r="37" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="20">
-        <v>50000</v>
-      </c>
-      <c r="B37" s="20">
-        <v>1700</v>
-      </c>
-      <c r="C37" s="20">
-        <f t="shared" si="6"/>
-        <v>850</v>
-      </c>
-      <c r="D37" s="13">
-        <f t="shared" si="7"/>
-        <v>0.34</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="15"/>
+      <c r="I37" s="14"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -1953,25 +1975,15 @@
       <c r="AC37" s="1"/>
     </row>
     <row r="38" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="20">
-        <v>80000</v>
-      </c>
-      <c r="B38" s="20">
-        <v>2800</v>
-      </c>
-      <c r="C38" s="20">
-        <f t="shared" si="6"/>
-        <v>1400</v>
-      </c>
-      <c r="D38" s="13">
-        <f t="shared" si="7"/>
-        <v>0.35000000000000003</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="15"/>
+      <c r="I38" s="14"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -1994,25 +2006,15 @@
       <c r="AC38" s="1"/>
     </row>
     <row r="39" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="20">
-        <v>100000</v>
-      </c>
-      <c r="B39" s="20">
-        <v>3500</v>
-      </c>
-      <c r="C39" s="20">
-        <f t="shared" si="6"/>
-        <v>1750</v>
-      </c>
-      <c r="D39" s="13">
-        <f t="shared" si="7"/>
-        <v>0.35000000000000003</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="15"/>
+      <c r="I39" s="14"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2034,26 +2036,16 @@
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
     </row>
-    <row r="40" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="20">
-        <v>120000</v>
-      </c>
-      <c r="B40" s="20">
-        <v>4000</v>
-      </c>
-      <c r="C40" s="20">
-        <f t="shared" si="6"/>
-        <v>2000</v>
-      </c>
-      <c r="D40" s="13">
-        <f t="shared" si="7"/>
-        <v>0.33333333333333331</v>
-      </c>
+    <row r="40" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="20"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="15"/>
+      <c r="I40" s="14"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2076,11 +2068,8 @@
       <c r="AC40" s="1"/>
     </row>
     <row r="41" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="15"/>
+      <c r="A41" s="31"/>
+      <c r="E41" s="14"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -2109,9 +2098,9 @@
     </row>
     <row r="42" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -2203,8 +2192,8 @@
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
     </row>
-    <row r="45" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
+    <row r="45" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2236,11 +2225,10 @@
       <c r="AD45" s="1"/>
     </row>
     <row r="46" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="32"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -2268,11 +2256,11 @@
       <c r="AD46" s="1"/>
     </row>
     <row r="47" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="34"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="32"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -2300,11 +2288,11 @@
       <c r="AD47" s="1"/>
     </row>
     <row r="48" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="35"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -2331,8 +2319,8 @@
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
     </row>
-    <row r="49" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
+    <row r="49" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="26"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2366,7 +2354,7 @@
     <row r="50" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="C50" s="2"/>
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
       <c r="F50" s="1"/>
@@ -2396,9 +2384,9 @@
       <c r="AD50" s="1"/>
     </row>
     <row r="51" spans="1:30" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
       <c r="F51" s="1"/>
@@ -2430,7 +2418,7 @@
     <row r="52" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="2"/>
+      <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2460,9 +2448,9 @@
       <c r="AD52" s="1"/>
     </row>
     <row r="53" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
+      <c r="A53" s="27"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="2"/>
+      <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -2491,8 +2479,8 @@
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
     </row>
-    <row r="54" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
+    <row r="54" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="28"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2524,8 +2512,8 @@
       <c r="AD54" s="1"/>
     </row>
     <row r="55" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2556,10 +2544,10 @@
       <c r="AD55" s="1"/>
     </row>
     <row r="56" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="3"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -2620,7 +2608,7 @@
       <c r="AD57" s="1"/>
     </row>
     <row r="58" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="28"/>
+      <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2652,7 +2640,7 @@
       <c r="AD58" s="1"/>
     </row>
     <row r="59" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="29"/>
+      <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2684,9 +2672,9 @@
       <c r="AD59" s="1"/>
     </row>
     <row r="60" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="29"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2716,10 +2704,10 @@
       <c r="AD60" s="1"/>
     </row>
     <row r="61" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="30"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="3"/>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -24604,7 +24592,7 @@
       <c r="AD744" s="1"/>
     </row>
     <row r="745" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A745" s="1"/>
+      <c r="A745" s="30"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
       <c r="D745" s="1"/>
@@ -24636,10 +24624,10 @@
       <c r="AD745" s="1"/>
     </row>
     <row r="746" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A746" s="1"/>
-      <c r="B746" s="1"/>
-      <c r="C746" s="1"/>
-      <c r="D746" s="1"/>
+      <c r="A746" s="30"/>
+      <c r="B746" s="30"/>
+      <c r="C746" s="30"/>
+      <c r="D746" s="30"/>
       <c r="E746" s="1"/>
       <c r="F746" s="1"/>
       <c r="G746" s="1"/>
@@ -24668,10 +24656,9 @@
       <c r="AD746" s="1"/>
     </row>
     <row r="747" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A747" s="1"/>
-      <c r="B747" s="1"/>
-      <c r="C747" s="1"/>
-      <c r="D747" s="1"/>
+      <c r="B747" s="30"/>
+      <c r="C747" s="30"/>
+      <c r="D747" s="30"/>
       <c r="E747" s="1"/>
       <c r="F747" s="1"/>
       <c r="G747" s="1"/>
@@ -24700,10 +24687,6 @@
       <c r="AD747" s="1"/>
     </row>
     <row r="748" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A748" s="1"/>
-      <c r="B748" s="1"/>
-      <c r="C748" s="1"/>
-      <c r="D748" s="1"/>
       <c r="E748" s="1"/>
       <c r="F748" s="1"/>
       <c r="G748" s="1"/>
@@ -24732,10 +24715,6 @@
       <c r="AD748" s="1"/>
     </row>
     <row r="749" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A749" s="1"/>
-      <c r="B749" s="1"/>
-      <c r="C749" s="1"/>
-      <c r="D749" s="1"/>
       <c r="E749" s="1"/>
       <c r="F749" s="1"/>
       <c r="G749" s="1"/>
@@ -24764,10 +24743,6 @@
       <c r="AD749" s="1"/>
     </row>
     <row r="750" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A750" s="31"/>
-      <c r="B750" s="1"/>
-      <c r="C750" s="1"/>
-      <c r="D750" s="1"/>
       <c r="E750" s="1"/>
       <c r="F750" s="1"/>
       <c r="G750" s="1"/>
@@ -24796,73 +24771,62 @@
       <c r="AD750" s="1"/>
     </row>
     <row r="751" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A751" s="31"/>
-      <c r="B751" s="31"/>
-      <c r="C751" s="31"/>
-      <c r="D751" s="31"/>
-      <c r="E751" s="31"/>
-      <c r="F751" s="31"/>
-      <c r="G751" s="31"/>
-      <c r="H751" s="31"/>
-      <c r="I751" s="31"/>
-      <c r="J751" s="31"/>
-      <c r="K751" s="31"/>
-      <c r="L751" s="31"/>
-      <c r="M751" s="31"/>
-      <c r="N751" s="31"/>
-      <c r="O751" s="31"/>
-      <c r="P751" s="31"/>
-      <c r="Q751" s="31"/>
-      <c r="R751" s="31"/>
-      <c r="S751" s="31"/>
-      <c r="T751" s="31"/>
-      <c r="U751" s="31"/>
-      <c r="V751" s="31"/>
-      <c r="W751" s="31"/>
-      <c r="X751" s="31"/>
-      <c r="Y751" s="31"/>
-      <c r="Z751" s="31"/>
-      <c r="AA751" s="31"/>
-      <c r="AB751" s="31"/>
-      <c r="AC751" s="31"/>
-      <c r="AD751" s="31"/>
+      <c r="E751" s="30"/>
+      <c r="F751" s="30"/>
+      <c r="G751" s="30"/>
+      <c r="H751" s="30"/>
+      <c r="I751" s="30"/>
+      <c r="J751" s="30"/>
+      <c r="K751" s="30"/>
+      <c r="L751" s="30"/>
+      <c r="M751" s="30"/>
+      <c r="N751" s="30"/>
+      <c r="O751" s="30"/>
+      <c r="P751" s="30"/>
+      <c r="Q751" s="30"/>
+      <c r="R751" s="30"/>
+      <c r="S751" s="30"/>
+      <c r="T751" s="30"/>
+      <c r="U751" s="30"/>
+      <c r="V751" s="30"/>
+      <c r="W751" s="30"/>
+      <c r="X751" s="30"/>
+      <c r="Y751" s="30"/>
+      <c r="Z751" s="30"/>
+      <c r="AA751" s="30"/>
+      <c r="AB751" s="30"/>
+      <c r="AC751" s="30"/>
+      <c r="AD751" s="30"/>
     </row>
     <row r="752" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B752" s="31"/>
-      <c r="C752" s="31"/>
-      <c r="D752" s="31"/>
-      <c r="E752" s="31"/>
-      <c r="F752" s="31"/>
-      <c r="G752" s="31"/>
-      <c r="H752" s="31"/>
-      <c r="I752" s="31"/>
-      <c r="J752" s="31"/>
-      <c r="K752" s="31"/>
-      <c r="L752" s="31"/>
-      <c r="M752" s="31"/>
-      <c r="N752" s="31"/>
-      <c r="O752" s="31"/>
-      <c r="P752" s="31"/>
-      <c r="Q752" s="31"/>
-      <c r="R752" s="31"/>
-      <c r="S752" s="31"/>
-      <c r="T752" s="31"/>
-      <c r="U752" s="31"/>
-      <c r="V752" s="31"/>
-      <c r="W752" s="31"/>
-      <c r="X752" s="31"/>
-      <c r="Y752" s="31"/>
-      <c r="Z752" s="31"/>
-      <c r="AA752" s="31"/>
-      <c r="AB752" s="31"/>
-      <c r="AC752" s="31"/>
-      <c r="AD752" s="31"/>
+      <c r="E752" s="30"/>
+      <c r="F752" s="30"/>
+      <c r="G752" s="30"/>
+      <c r="H752" s="30"/>
+      <c r="I752" s="30"/>
+      <c r="J752" s="30"/>
+      <c r="K752" s="30"/>
+      <c r="L752" s="30"/>
+      <c r="M752" s="30"/>
+      <c r="N752" s="30"/>
+      <c r="O752" s="30"/>
+      <c r="P752" s="30"/>
+      <c r="Q752" s="30"/>
+      <c r="R752" s="30"/>
+      <c r="S752" s="30"/>
+      <c r="T752" s="30"/>
+      <c r="U752" s="30"/>
+      <c r="V752" s="30"/>
+      <c r="W752" s="30"/>
+      <c r="X752" s="30"/>
+      <c r="Y752" s="30"/>
+      <c r="Z752" s="30"/>
+      <c r="AA752" s="30"/>
+      <c r="AB752" s="30"/>
+      <c r="AC752" s="30"/>
+      <c r="AD752" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A47:E47"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
